--- a/词条表.xlsx
+++ b/词条表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\游戏设计方案\秽土\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A10EA-99A0-419C-9C42-CFD090D04326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603AE21C-FA24-4BF7-B097-5283B6CDCEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="783" activeTab="1" xr2:uid="{01AE9ACE-31AE-4066-A800-F7F12852837C}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="783" activeTab="6" xr2:uid="{01AE9ACE-31AE-4066-A800-F7F12852837C}"/>
   </bookViews>
   <sheets>
     <sheet name="手段框词条" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="966">
   <si>
     <t>Name</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -3239,10 +3239,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>技能冷却-{参数},行动力+{参数}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>霞将所有羽毛唤回她所在的位置,对沿途的敌人进攻
 被{参数}支羽毛所命中的敌人会被禁锢</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -3508,11 +3504,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>将棺材背在身后,受到的来自身后的伤害将由棺材承受,并且不会触发背击增伤
-移动力-{参数}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>奥光闪</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -3733,11 +3724,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>根据邀请你加入拳源的人,获得相应技能
-如果其无拳击技巧,或你已掌握其技巧,则获得"拳不离手"技能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
@@ -3983,6 +3969,105 @@
   </si>
   <si>
     <t>50|17</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>将棺材背在身后,受到的来自身后的伤害将由棺材承受,并且不会触发背击增伤
+移动力-{参数}
+速度-{参数}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|30</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却-{参数},返还行动力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>经费在燃烧</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌值增加时获得{参数}粉尘
+战斗结束后额外获得{参数}粉尘
+(非玩家直接获得与当前混沌值相等的粉尘)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据邀请你加入拳源的人,获得相应技能
+如果其无拳击技巧,或你已掌握其技巧,则获得"拳不离手"技能
+触发后失去此技能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不传秘术</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获得"巫毒配方","巫毒人偶","巫毒返生"中的一个未拥有技能
+触发后失去此技能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫毒配方</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀单位将获得一份"僵尸粉"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫毒人偶</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒连接</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争反转</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>入场时变为敌方单位</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>版权技能|消耗技能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成与目标连接的"巫毒娃娃"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果未与单位连接,那么与最近的己方单位连接
+这个连接距离上限+{参数}
+连接者们会互相传递伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫毒返生</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>由你制造的返生者将获得"精制返生者"技能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精制返生者</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个技能必须依附于"返生者"技能,失去返生者技能也将失去此技能
+生命值上限+{参数}%
+智核变为常态核心</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -4645,7 +4730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
@@ -4720,7 +4805,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D10" t="s">
         <v>121</v>
@@ -4760,7 +4845,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -4769,7 +4854,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.55">
@@ -4777,7 +4862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -4786,7 +4871,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -4803,15 +4888,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="8"/>
-    <col min="3" max="3" width="27.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="98.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
@@ -4850,10 +4936,10 @@
         <v>565</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>33</v>
@@ -4867,7 +4953,7 @@
         <v>189</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>205</v>
@@ -4884,7 +4970,7 @@
         <v>190</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>239</v>
@@ -4901,7 +4987,7 @@
         <v>191</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>240</v>
@@ -5437,8 +5523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8F825C-53BE-4D79-B874-F3D080497C91}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
@@ -5601,7 +5687,7 @@
         <v>304</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>41</v>
@@ -5715,16 +5801,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>304</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5956,13 +6042,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>304</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>33</v>
@@ -6053,10 +6139,10 @@
         <v>304</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>27</v>
@@ -6165,7 +6251,7 @@
         <v>33</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G39" s="2">
         <v>10</v>
@@ -6219,10 +6305,10 @@
         <v>304</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6673,7 +6759,7 @@
         <v>304</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6744,7 +6830,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F69" s="3"/>
     </row>
@@ -6850,8 +6936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D886B8C-D31E-4CA7-8684-EA2A2A4C8425}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65"/>
@@ -7058,10 +7144,10 @@
         <v>421</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7091,16 +7177,16 @@
         <v>424</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>566</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="46.9">
@@ -7111,7 +7197,7 @@
         <v>225</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>226</v>
@@ -7161,10 +7247,10 @@
         <v>441</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>114</v>
@@ -7495,7 +7581,7 @@
         <v>356</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>259</v>
@@ -7510,10 +7596,10 @@
         <v>162</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="31.25">
@@ -7729,7 +7815,7 @@
         <v>161</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>607</v>
@@ -8033,8 +8119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4590C8B-30C8-4372-8003-2DD69C4A860C}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
@@ -8112,7 +8198,7 @@
         <v>236</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>307</v>
@@ -8126,7 +8212,7 @@
         <v>407</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="78.150000000000006">
@@ -8134,13 +8220,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8176,10 +8262,10 @@
         <v>356</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.25">
@@ -8246,7 +8332,7 @@
         <v>421</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>617</v>
@@ -8263,7 +8349,7 @@
         <v>566</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>388</v>
@@ -8277,7 +8363,7 @@
         <v>343</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>459</v>
@@ -8294,7 +8380,7 @@
         <v>499</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>558</v>
@@ -8308,13 +8394,13 @@
         <v>435</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>884</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>49</v>
@@ -8325,13 +8411,13 @@
         <v>436</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -8342,13 +8428,13 @@
         <v>411</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -8359,7 +8445,7 @@
         <v>364</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>460</v>
@@ -8376,7 +8462,7 @@
         <v>628</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>629</v>
@@ -8460,7 +8546,7 @@
         <v>475</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>262</v>
@@ -8471,10 +8557,10 @@
         <v>676</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>33</v>
@@ -8493,7 +8579,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>747</v>
@@ -8504,7 +8590,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>679</v>
@@ -8518,18 +8604,18 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>409</v>
@@ -8543,10 +8629,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>549</v>
@@ -8554,7 +8640,7 @@
     </row>
     <row r="37" spans="1:7" ht="78.150000000000006">
       <c r="A37" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>481</v>
@@ -8571,7 +8657,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>736</v>
@@ -8582,7 +8668,7 @@
     </row>
     <row r="39" spans="1:7" ht="93.75">
       <c r="A39" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>758</v>
@@ -8599,7 +8685,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>762</v>
@@ -8613,7 +8699,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>764</v>
@@ -8630,7 +8716,7 @@
     </row>
     <row r="42" spans="1:7" ht="78.150000000000006">
       <c r="A42" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>491</v>
@@ -8644,21 +8730,21 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>635</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="62.5">
       <c r="A44" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>599</v>
@@ -8672,7 +8758,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>769</v>
@@ -8683,24 +8769,24 @@
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -8713,8 +8799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFF654A-B90C-4595-BD13-5DC1ED9258B2}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
@@ -8877,10 +8963,10 @@
         <v>363</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.25">
@@ -8911,7 +8997,7 @@
         <v>355</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -8923,10 +9009,10 @@
         <v>363</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8934,7 +9020,7 @@
         <v>356</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>44</v>
@@ -8946,10 +9032,10 @@
         <v>363</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8957,7 +9043,7 @@
         <v>354</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>198</v>
@@ -8969,7 +9055,7 @@
         <v>376</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>403</v>
@@ -8980,7 +9066,7 @@
         <v>367</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>455</v>
@@ -8995,7 +9081,7 @@
         <v>376</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>198</v>
@@ -9006,7 +9092,7 @@
         <v>368</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
@@ -9055,7 +9141,7 @@
         <v>375</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>40</v>
@@ -9133,7 +9219,7 @@
         <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>50</v>
@@ -9179,10 +9265,10 @@
         <v>13</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>773</v>
+        <v>946</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -9202,10 +9288,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>773</v>
+        <v>946</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -9225,10 +9311,10 @@
         <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>773</v>
+        <v>946</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.25">
@@ -9239,7 +9325,7 @@
         <v>648</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>341</v>
@@ -9417,7 +9503,7 @@
         <v>677</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>198</v>
@@ -9429,7 +9515,7 @@
         <v>363</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>40</v>
@@ -9437,10 +9523,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>44</v>
@@ -9452,12 +9538,12 @@
         <v>363</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>749</v>
@@ -9480,7 +9566,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>751</v>
@@ -9503,7 +9589,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>754</v>
@@ -9526,7 +9612,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>756</v>
@@ -9552,10 +9638,10 @@
     </row>
     <row r="37" spans="1:9" ht="31.25">
       <c r="A37" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>198</v>
@@ -9567,15 +9653,15 @@
         <v>376</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>680</v>
@@ -9595,7 +9681,7 @@
     </row>
     <row r="39" spans="1:9" ht="31.25">
       <c r="A39" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>552</v>
@@ -9621,7 +9707,7 @@
     </row>
     <row r="40" spans="1:9" ht="31.25">
       <c r="A40" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>409</v>
@@ -9647,7 +9733,7 @@
     </row>
     <row r="41" spans="1:9" ht="46.9">
       <c r="A41" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>443</v>
@@ -9670,7 +9756,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>743</v>
@@ -9693,7 +9779,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>758</v>
@@ -9716,7 +9802,7 @@
     </row>
     <row r="44" spans="1:9" ht="31.25">
       <c r="A44" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>454</v>
@@ -9742,7 +9828,7 @@
     </row>
     <row r="45" spans="1:9" ht="31.25">
       <c r="A45" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>442</v>
@@ -9765,7 +9851,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>494</v>
@@ -9788,7 +9874,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>728</v>
@@ -9811,10 +9897,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>479</v>
@@ -9829,15 +9915,15 @@
         <v>376</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>553</v>
@@ -9852,15 +9938,15 @@
         <v>376</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="B50" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>33</v>
@@ -9872,15 +9958,15 @@
         <v>363</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="31.25">
       <c r="B51" s="2" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>455</v>
@@ -9895,7 +9981,7 @@
         <v>376</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>328</v>
@@ -9903,7 +9989,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="B52" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>50</v>
@@ -9915,12 +10001,12 @@
         <v>376</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="B53" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>582</v>
@@ -9935,15 +10021,15 @@
         <v>363</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="B54" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>582</v>
@@ -9958,7 +10044,7 @@
         <v>363</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>41</v>
@@ -9973,10 +10059,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D0BC9B-C9BF-48F8-91C4-0F377387F2F1}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
@@ -10082,7 +10168,7 @@
         <v>566</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>328</v>
@@ -10178,7 +10264,7 @@
         <v>566</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.25">
@@ -10206,10 +10292,10 @@
         <v>566</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="31.25">
@@ -10217,13 +10303,13 @@
         <v>421</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>566</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10245,7 +10331,7 @@
         <v>771</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>566</v>
+        <v>959</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>772</v>
@@ -10256,10 +10342,10 @@
         <v>435</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>804</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>198</v>
@@ -10285,180 +10371,254 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" ht="46.9">
+      <c r="B20" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="46.9">
+      <c r="A21" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>918</v>
+        <v>950</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>381</v>
+        <v>871</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>916</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="46.9">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="46.9">
+      <c r="A25" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="31.25">
-      <c r="A25" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="62.5">
-      <c r="A26" s="2" t="s">
-        <v>536</v>
-      </c>
+    <row r="26" spans="1:7" ht="31.25">
       <c r="B26" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>684</v>
+        <v>951</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="G26" s="2">
-        <v>20</v>
+        <v>952</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="31.25">
       <c r="A27" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>237</v>
+        <v>824</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>566</v>
+        <v>479</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="G27" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="62.5">
       <c r="A28" s="2" t="s">
-        <v>675</v>
+        <v>536</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>452</v>
+        <v>353</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>453</v>
+        <v>684</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G28" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.25">
       <c r="A29" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>797</v>
+        <v>237</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>566</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="G29" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G29" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="31.25">
+      <c r="A31" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1">
-      <c r="A30" s="2" t="s">
+    <row r="32" spans="1:7" s="3" customFormat="1">
+      <c r="A32" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" s="2" t="s">
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>899</v>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="46.9">
+      <c r="B38" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="46.9">
+      <c r="B39" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -10469,10 +10629,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0966217C-06BF-4A79-B8A8-E13763F334D9}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
@@ -10550,10 +10710,10 @@
         <v>198</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -10565,7 +10725,7 @@
         <v>363</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10588,7 +10748,7 @@
         <v>161</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10758,7 +10918,7 @@
         <v>161</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I12" s="16">
         <v>25</v>
@@ -11094,7 +11254,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>536</v>
+        <v>668</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>698</v>
@@ -11115,78 +11275,90 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31.25">
+      <c r="A29" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="31.25">
-      <c r="A28" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="46.9">
-      <c r="B29" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>376</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>724</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="31.25">
+      <c r="A30" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>896</v>
+        <v>726</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>50</v>
@@ -11194,62 +11366,53 @@
       <c r="G30" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="31.25">
+      <c r="H30" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="46.9">
       <c r="B31" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>684</v>
+        <v>891</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="31.25">
-      <c r="B32" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="46.9">
+        <v>376</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="31.25">
       <c r="B33" s="2" t="s">
-        <v>685</v>
+        <v>778</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>684</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>33</v>
@@ -11258,47 +11421,67 @@
         <v>363</v>
       </c>
       <c r="H33" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="31.25">
+      <c r="B34" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="46.9">
+      <c r="B35" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>51</v>
+    <row r="36" spans="2:9">
+      <c r="B36" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -11312,7 +11495,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65"/>
@@ -11333,10 +11516,10 @@
         <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
@@ -11358,36 +11541,36 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="46.9">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
+        <v>944</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11395,16 +11578,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -11412,16 +11595,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11429,16 +11612,16 @@
         <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
